--- a/Data/t11.1.xlsx
+++ b/Data/t11.1.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.225681847738935</v>
+        <v>0.6284697573582632</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-35.85580881245755</v>
+        <v>-3.457940491011868</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72.49768679296503</v>
+        <v>-4.38563319440507</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>130.443261972218</v>
+        <v>4.925015784735254</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-15.14402869637984</v>
+        <v>3.94169470450314</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-12.23785693299016</v>
+        <v>-3.268616051500828</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-5.227622027645829</v>
+        <v>-4.874348698261599</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-45.28747794461167</v>
+        <v>10.71328468272941</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87.84896791474415</v>
+        <v>2.106708297751525</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37.0280322157823</v>
+        <v>4.624465628743701</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.18615021316513</v>
+        <v>4.898412450649081</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.8367967658666653</v>
+        <v>1.024654832915561</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-28.0528553432964</v>
+        <v>8.286119013349303</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115.1434484216056</v>
+        <v>19.25264028550981</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>123.6000119202997</v>
+        <v>1.809159354083922</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-11.5908488900504</v>
+        <v>8.294052293319588</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-5.124767782011642</v>
+        <v>4.571426746882601</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.4388786072507922</v>
+        <v>-0.06775476732870933</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-51.7600333680022</v>
+        <v>-2.384226532146261</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>127.8898711154011</v>
+        <v>23.87124003019909</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53.54522304137959</v>
+        <v>17.23577030759078</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.418441226650136</v>
+        <v>2.138274559658204</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.4255834719303242</v>
+        <v>1.443587256715317</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-35.94113878532161</v>
+        <v>-3.586368820462005</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77.87836792496388</v>
+        <v>-1.403155985673799</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>125.3835350367144</v>
+        <v>2.621229924256641</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-14.02042084124686</v>
+        <v>5.318023357061175</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-7.387806421909604</v>
+        <v>2.077106850898325</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4.397496180983396</v>
+        <v>-4.041128476128842</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-43.980193633161</v>
+        <v>13.35863413286775</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92.96576035499966</v>
+        <v>4.887979011756349</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>41.23113810806623</v>
+        <v>7.83364626755445</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.751898154421808</v>
+        <v>4.465348292741567</v>
       </c>
     </row>
     <row r="35">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-2.943129199077854</v>
+        <v>-1.121216821977611</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-64.66485560312249</v>
+        <v>-46.817824810541</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>23.67908044561804</v>
+        <v>-31.44547510309983</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>113.1515720324035</v>
+        <v>-2.948205694391848</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-6.101783844054487</v>
+        <v>15.01771256682733</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-27.45090755031315</v>
+        <v>-20.03643175044765</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-20.96689352188928</v>
+        <v>-20.67228986991331</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-44.69221037608069</v>
+        <v>11.91783576722245</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>166.4408816080667</v>
+        <v>44.82592946317314</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-16.00843167425606</v>
+        <v>-35.87025361669786</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>26.79257995833249</v>
+        <v>26.44573759185258</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-2.87395683784698</v>
+        <v>-1.050745985120649</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-38.53686823916109</v>
+        <v>-7.493146079046776</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>83.43663157986259</v>
+        <v>1.677754082062677</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>112.3003314741009</v>
+        <v>-3.335791029940871</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-13.61984232842689</v>
+        <v>5.808699603470968</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-10.85313101906604</v>
+        <v>-1.74237194029041</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-8.139461311679009</v>
+        <v>-7.79704214867224</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-41.77076052899292</v>
+        <v>17.82952282634764</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>109.9869418717748</v>
+        <v>14.13996924257421</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>35.23321420801553</v>
+        <v>3.254075410574742</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.534308081522375</v>
+        <v>3.251088949624781</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.5223263273563816</v>
+        <v>2.409290835890476</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-36.84495654706508</v>
+        <v>-4.946685733405854</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91.16578762491301</v>
+        <v>5.961975945722298</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>105.5935339421282</v>
+        <v>-6.389518142136009</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-16.10650749067549</v>
+        <v>2.762736106076624</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-4.836009998383817</v>
+        <v>4.889695411025086</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-8.867322259001597</v>
+        <v>-8.527616269027838</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-40.34892663624147</v>
+        <v>20.7066685806667</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>111.483025865421</v>
+        <v>14.95317686156681</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>31.65846958292546</v>
+        <v>0.5246649380495905</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9.630755652925394</v>
+        <v>9.330859627920308</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-1.458451052679244</v>
+        <v>0.3913311029190458</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-38.55826851689875</v>
+        <v>-7.525355182452831</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>88.91603020293266</v>
+        <v>4.714949766020449</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>108.789858298201</v>
+        <v>-4.934173426721832</v>
       </c>
     </row>
     <row r="73">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8109.352709715999</v>
+        <v>9955.792420568079</v>
       </c>
     </row>
     <row r="75">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7857.232951639141</v>
+        <v>8670.457613198299</v>
       </c>
     </row>
     <row r="77">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6899.184012991675</v>
+        <v>6925.274157526867</v>
       </c>
     </row>
     <row r="79">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1624.042816659019</v>
+        <v>3388.679300375744</v>
       </c>
     </row>
     <row r="81">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8842.372114628854</v>
+        <v>4760.693093681293</v>
       </c>
     </row>
     <row r="83">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>10142.40624326026</v>
+        <v>7720.343491951493</v>
       </c>
     </row>
     <row r="85">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8089.636590510408</v>
+        <v>8067.233757974019</v>
       </c>
     </row>
     <row r="87">

--- a/Data/t11.1.xlsx
+++ b/Data/t11.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,25 +1051,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Receitas Tributárias</t>
+          <t>Receitas de Exploração de Recursos Naturais</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Total (1)</t>
+          <t>Total (3)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-99.99920705429672</v>
+        <v>-1.121216821977611</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1082,12 +1082,12 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1.121216821977611</v>
+        <v>-46.817824810541</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1100,12 +1100,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-46.817824810541</v>
+        <v>-31.44547510309983</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-31.44547510309983</v>
+        <v>-2.948205694391848</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1136,12 +1136,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-2.948205694391848</v>
+        <v>15.01771256682733</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1154,12 +1154,12 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>15.01771256682733</v>
+        <v>-20.03643175044765</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-20.03643175044765</v>
+        <v>-20.67228986991331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1190,12 +1190,12 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-20.67228986991331</v>
+        <v>11.91783576722245</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1208,12 +1208,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11.91783576722245</v>
+        <v>44.82592946317314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1226,12 +1226,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>44.82592946317314</v>
+        <v>-35.87025361669786</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1244,30 +1244,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-35.87025361669786</v>
+        <v>26.44573759185258</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Receitas de Exploração de Recursos Naturais</t>
+          <t>Transferências Federais</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Total (3)</t>
+          <t>Fundeb</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>26.44573759185258</v>
+        <v>-1.050745985120649</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1.050745985120649</v>
+        <v>-7.493146079046776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1298,12 +1298,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-7.493146079046776</v>
+        <v>1.677754082062677</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.677754082062677</v>
+        <v>-3.335791029940871</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-3.335791029940871</v>
+        <v>5.808699603470968</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1352,12 +1352,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5.808699603470968</v>
+        <v>-1.74237194029041</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1370,12 +1370,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-1.74237194029041</v>
+        <v>-7.79704214867224</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1388,12 +1388,12 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-7.79704214867224</v>
+        <v>17.82952282634764</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1406,12 +1406,12 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17.82952282634764</v>
+        <v>14.13996924257421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14.13996924257421</v>
+        <v>3.254075410574742</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1442,12 +1442,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.254075410574742</v>
+        <v>3.251088949624781</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fundeb</t>
+          <t>Fundo de Participação dos Estados</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.251088949624781</v>
+        <v>2.409290835890476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1478,12 +1478,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.409290835890476</v>
+        <v>-4.946685733405854</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-4.946685733405854</v>
+        <v>5.961975945722298</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1514,12 +1514,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.961975945722298</v>
+        <v>-6.389518142136009</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1532,12 +1532,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-6.389518142136009</v>
+        <v>2.762736106076624</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1550,12 +1550,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.762736106076624</v>
+        <v>4.889695411025086</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1568,12 +1568,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.889695411025086</v>
+        <v>-8.527616269027838</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1586,12 +1586,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-8.527616269027838</v>
+        <v>20.7066685806667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>20.7066685806667</v>
+        <v>14.95317686156681</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1622,12 +1622,12 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14.95317686156681</v>
+        <v>0.5246649380495905</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1640,12 +1640,12 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5246649380495905</v>
+        <v>9.330859627920308</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1654,16 +1654,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fundo de Participação dos Estados</t>
+          <t>Total (2)</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9.330859627920308</v>
+        <v>0.3913311029190458</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.3913311029190458</v>
+        <v>-7.525355182452831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1694,12 +1694,12 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-7.525355182452831</v>
+        <v>4.714949766020449</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.714949766020449</v>
+        <v>-4.934173426721832</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-4.934173426721832</v>
+        <v>5.774829641842771</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-98.9481203945152</v>
+        <v>5.802324679288562</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1766,12 +1766,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9955.792420568079</v>
+        <v>7.581511795768359</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1784,12 +1784,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-98.79365103458146</v>
+        <v>-1.876111608518882</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1802,12 +1802,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8670.457613198299</v>
+        <v>13.31183179031803</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-98.46865034184459</v>
+        <v>4.645733788933248</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1838,169 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6925.274157526867</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>-97.18736289744623</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>3388.679300375744</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>-97.66881328225352</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>4760.693093681293</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>-98.6618780377533</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>7720.343491951493</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>-98.66184485220973</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>8067.233757974019</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Transferências Federais</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Total (2)</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>-98.55073716732846</v>
+        <v>9.290258964394194</v>
       </c>
     </row>
   </sheetData>
